--- a/_metodos-estadisticos/guiones/HorasSueñoSuprimidas.xlsx
+++ b/_metodos-estadisticos/guiones/HorasSueñoSuprimidas.xlsx
@@ -64,20 +64,75 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -106,7 +161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -115,8 +170,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -304,7 +387,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -320,81 +403,81 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="6" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="6" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="8" t="n">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="9" t="n">
         <v>62</v>
       </c>
     </row>
